--- a/ui/buyer_catalogue/app/sample_files/booking_plan_sheet_v1.xlsx
+++ b/ui/buyer_catalogue/app/sample_files/booking_plan_sheet_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Supplier Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Phases</t>
   </si>
   <si>
+    <t xml:space="preserve">Requirement Given</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mahavir Corporate</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">UVOTMPDDBRET</t>
@@ -76,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -179,12 +185,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -250,17 +256,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -270,15 +276,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="12" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1021" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1021" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -302,48 +306,51 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>43971</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
